--- a/variables_mapping/important_variables.xlsx
+++ b/variables_mapping/important_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\AlmaLinux9\home\saram\PhD\genomit\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\AlmaLinux9\home\saram\PhD\genomit_PMD\variables_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AB597-9503-4228-B7C3-89991F67046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2F759-C992-4D0C-9562-02B86CB05207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="558">
   <si>
     <t>form</t>
   </si>
@@ -1700,6 +1700,9 @@
   </si>
   <si>
     <t>TO DISCUSS, TO MUCH 998S</t>
+  </si>
+  <si>
+    <t>visitmainform22</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2136,8 @@
   </sheetPr>
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>130</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="59" spans="1:11" ht="28.5">
       <c r="A59" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>132</v>
@@ -4156,7 +4159,7 @@
     </row>
     <row r="60" spans="1:11" ht="28.5">
       <c r="A60" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>134</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="61" spans="1:11" ht="28.5">
       <c r="A61" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>136</v>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="62" spans="1:11" ht="28.5">
       <c r="A62" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>138</v>
@@ -4261,7 +4264,7 @@
     </row>
     <row r="63" spans="1:11" ht="28.5">
       <c r="A63" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>140</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="64" spans="1:11" ht="28.5">
       <c r="A64" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>142</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="65" spans="1:11" ht="28.5">
       <c r="A65" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>144</v>
@@ -4366,7 +4369,7 @@
     </row>
     <row r="66" spans="1:11" ht="28.5">
       <c r="A66" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>146</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="67" spans="1:11" ht="28.5">
       <c r="A67" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>148</v>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="68" spans="1:11" ht="42.75">
       <c r="A68" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>150</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="69" spans="1:11" ht="28.5">
       <c r="A69" s="24" t="s">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>152</v>
